--- a/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_极光组.xlsx
+++ b/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_极光组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
   <si>
     <t>No</t>
   </si>
@@ -215,6 +215,50 @@
   </si>
   <si>
     <t>预约单发起蘑菇宝签约，性别无法选择</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高可用图片上传路径统一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄展明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙周麟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">“非法请求,给予拦截!”的文案，改成”您的账号可能在其他电脑上登录，当前操作未被保存。”   </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构信息安全修改
+1、登录失败信息模糊化
+2、图片上传非法校验
+3、修改数据含验证信息
+4、房东App和PC的销售和财务查询自有业务数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC&amp;App、BS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -953,7 +997,7 @@
   <dimension ref="A1:T217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1282,7 +1326,7 @@
         <v>51</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="14"/>
@@ -1336,20 +1380,38 @@
       <c r="S8" s="18"/>
       <c r="T8" s="10"/>
     </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="B9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="33">
+        <v>42443</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="33">
+        <v>42443</v>
+      </c>
       <c r="I9" s="12"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="12"/>
+      <c r="J9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="L9" s="12"/>
       <c r="M9" s="14"/>
       <c r="N9" s="13"/>
@@ -1364,16 +1426,34 @@
       <c r="A10" s="21">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="B10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="33">
+        <v>42443</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="33">
+        <v>42443</v>
+      </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="12"/>
+      <c r="J10" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>57</v>
+      </c>
       <c r="L10" s="12"/>
       <c r="M10" s="14"/>
       <c r="N10" s="13"/>
@@ -1384,20 +1464,38 @@
       <c r="S10" s="18"/>
       <c r="T10" s="10"/>
     </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="11" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A11" s="21">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="B11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="33">
+        <v>42443</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="33">
+        <v>42443</v>
+      </c>
       <c r="I11" s="12"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="12"/>
+      <c r="J11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="L11" s="12"/>
       <c r="M11" s="14"/>
       <c r="N11" s="13"/>

--- a/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_极光组.xlsx
+++ b/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_极光组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
   <si>
     <t>No</t>
   </si>
@@ -259,6 +259,25 @@
   </si>
   <si>
     <t>房东PC&amp;App、BS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -352,12 +371,14 @@
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -996,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1114,10 +1135,18 @@
       <c r="K2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="L2" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="33">
+        <v>42444</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>67</v>
+      </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="30" t="s">
@@ -1158,10 +1187,18 @@
       <c r="K3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38"/>
+      <c r="L3" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="37">
+        <v>42444</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="P3" s="38"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="36" t="s">
@@ -1202,13 +1239,23 @@
       <c r="K4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+      <c r="L4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="13">
+        <v>42444</v>
+      </c>
+      <c r="O4" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="31"/>
+      <c r="R4" s="36" t="s">
+        <v>30</v>
+      </c>
       <c r="S4" s="18"/>
       <c r="T4" s="10"/>
     </row>
@@ -1244,13 +1291,23 @@
       <c r="K5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
+      <c r="L5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="33">
+        <v>42444</v>
+      </c>
+      <c r="O5" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="31"/>
+      <c r="R5" s="36" t="s">
+        <v>30</v>
+      </c>
       <c r="S5" s="18"/>
       <c r="T5" s="10"/>
     </row>
@@ -1286,13 +1343,23 @@
       <c r="K6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
+      <c r="L6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="33">
+        <v>42444</v>
+      </c>
+      <c r="O6" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="31"/>
+      <c r="R6" s="36" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="18"/>
       <c r="T6" s="10"/>
     </row>
@@ -1370,13 +1437,23 @@
       <c r="K8" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
+      <c r="L8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" s="33">
+        <v>42444</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="31"/>
+      <c r="R8" s="36" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="18"/>
       <c r="T8" s="10"/>
     </row>

--- a/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_极光组.xlsx
+++ b/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_极光组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
   <si>
     <t>No</t>
   </si>
@@ -278,6 +278,14 @@
   </si>
   <si>
     <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC租金宝查询异常</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1017,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1587,16 +1595,34 @@
       <c r="A12" s="21">
         <v>12</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="12"/>
+      <c r="B12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="33">
+        <v>42443</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="33">
+        <v>42443</v>
+      </c>
+      <c r="I12" s="32"/>
+      <c r="J12" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="L12" s="12"/>
       <c r="M12" s="14"/>
       <c r="N12" s="13"/>

--- a/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_极光组.xlsx
+++ b/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_极光组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
   <si>
     <t>No</t>
   </si>
@@ -183,10 +183,6 @@
   </si>
   <si>
     <t>录入房源时 职能插件小区搜索带上所属城市</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"房东APP端点击搜索，输入小区名字，出现相应的房源列表后，随意点击任意一房源信息，无法跳转房源界面，显示白屏。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -286,6 +282,10 @@
   </si>
   <si>
     <t>房东PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"房东APP端点击搜索，输入小区名字，出现相应的房源列表后，随意点击任意一房源信息，无法跳转房源界面，显示白屏。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:T217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1144,16 +1144,16 @@
         <v>35</v>
       </c>
       <c r="L2" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="34" t="s">
         <v>63</v>
-      </c>
-      <c r="M2" s="34" t="s">
-        <v>64</v>
       </c>
       <c r="N2" s="33">
         <v>42444</v>
       </c>
       <c r="O2" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
@@ -1196,16 +1196,16 @@
         <v>35</v>
       </c>
       <c r="L3" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N3" s="37">
         <v>42444</v>
       </c>
       <c r="O3" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P3" s="38"/>
       <c r="Q3" s="7"/>
@@ -1242,22 +1242,22 @@
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" s="32" t="s">
         <v>35</v>
       </c>
       <c r="L4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>64</v>
       </c>
       <c r="N4" s="13">
         <v>42444</v>
       </c>
       <c r="O4" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -1294,22 +1294,22 @@
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" s="32" t="s">
         <v>35</v>
       </c>
       <c r="L5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>64</v>
       </c>
       <c r="N5" s="33">
         <v>42444</v>
       </c>
       <c r="O5" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -1330,7 +1330,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>15</v>
@@ -1346,22 +1346,22 @@
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K6" s="32" t="s">
         <v>35</v>
       </c>
       <c r="L6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>64</v>
       </c>
       <c r="N6" s="33">
         <v>42444</v>
       </c>
       <c r="O6" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
@@ -1376,13 +1376,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>15</v>
@@ -1398,10 +1398,10 @@
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="14"/>
@@ -1418,7 +1418,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>27</v>
@@ -1446,16 +1446,16 @@
         <v>35</v>
       </c>
       <c r="L8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>64</v>
       </c>
       <c r="N8" s="33">
         <v>42444</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -1470,13 +1470,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>15</v>
@@ -1492,18 +1492,28 @@
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K9" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
+      <c r="L9" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" s="33">
+        <v>42444</v>
+      </c>
+      <c r="O9" s="34" t="s">
+        <v>65</v>
+      </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="31"/>
+      <c r="R9" s="36" t="s">
+        <v>30</v>
+      </c>
       <c r="S9" s="18"/>
       <c r="T9" s="10"/>
     </row>
@@ -1512,13 +1522,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>54</v>
-      </c>
       <c r="D10" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>15</v>
@@ -1534,10 +1544,10 @@
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="14"/>
@@ -1554,10 +1564,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>39</v>
@@ -1576,10 +1586,10 @@
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="14"/>
@@ -1596,13 +1606,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>15</v>
@@ -1618,7 +1628,7 @@
       </c>
       <c r="I12" s="32"/>
       <c r="J12" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K12" s="32" t="s">
         <v>35</v>

--- a/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_极光组.xlsx
+++ b/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_极光组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="73">
   <si>
     <t>No</t>
   </si>
@@ -186,35 +186,118 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>房东PC&amp;App</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东App</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>田东兴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王园</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔斌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑良杰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约单发起蘑菇宝签约，性别无法选择</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高可用图片上传路径统一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄展明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙周麟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">“非法请求,给予拦截!”的文案，改成”您的账号可能在其他电脑上登录，当前操作未被保存。”   </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构信息安全修改
+1、登录失败信息模糊化
+2、图片上传非法校验
+3、修改数据含验证信息
+4、房东App和PC的销售和财务查询自有业务数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC租金宝查询异常</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>"房东APP端点击搜索，输入小区名字，出现相应的房源列表后，随意点击任意一房源信息，无法跳转房源界面，显示白屏。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>房东PC&amp;App</t>
+    <t>房东端LTS定时器上线</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>房东App</t>
+    <t>房东PC&amp;App、BS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>田东兴</t>
+    <t>纪维玉</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>王园</t>
+    <t>徐燕</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>崔斌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑良杰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约单发起蘑菇宝签约，性别无法选择</t>
+    <t>纪维玉</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -308,12 +391,14 @@
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -952,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1070,10 +1155,18 @@
       <c r="K2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="L2" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="33">
+        <v>42444</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="30" t="s">
@@ -1114,10 +1207,18 @@
       <c r="K3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38"/>
+      <c r="L3" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="37">
+        <v>42444</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="P3" s="38"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="36" t="s">
@@ -1153,18 +1254,28 @@
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+      <c r="L4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="13">
+        <v>42444</v>
+      </c>
+      <c r="O4" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="31"/>
+      <c r="R4" s="36" t="s">
+        <v>30</v>
+      </c>
       <c r="S4" s="18"/>
       <c r="T4" s="10"/>
     </row>
@@ -1195,18 +1306,28 @@
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
+      <c r="L5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="33">
+        <v>42444</v>
+      </c>
+      <c r="O5" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="31"/>
+      <c r="R5" s="36" t="s">
+        <v>30</v>
+      </c>
       <c r="S5" s="18"/>
       <c r="T5" s="10"/>
     </row>
@@ -1221,7 +1342,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>15</v>
@@ -1237,18 +1358,28 @@
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
+      <c r="L6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="33">
+        <v>42444</v>
+      </c>
+      <c r="O6" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="31"/>
+      <c r="R6" s="36" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="18"/>
       <c r="T6" s="10"/>
     </row>
@@ -1257,13 +1388,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>15</v>
@@ -1279,18 +1410,28 @@
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
+        <v>55</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="33">
+        <v>42444</v>
+      </c>
+      <c r="O7" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="31"/>
+      <c r="R7" s="36" t="s">
+        <v>30</v>
+      </c>
       <c r="S7" s="18"/>
       <c r="T7" s="10"/>
     </row>
@@ -1299,7 +1440,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>27</v>
@@ -1326,37 +1467,75 @@
       <c r="K8" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
+      <c r="L8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="33">
+        <v>42444</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="31"/>
+      <c r="R8" s="36" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="18"/>
       <c r="T8" s="10"/>
     </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="B9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="33">
+        <v>42443</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="33">
+        <v>42443</v>
+      </c>
       <c r="I9" s="12"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
+      <c r="J9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="33">
+        <v>42444</v>
+      </c>
+      <c r="O9" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="31"/>
+      <c r="R9" s="36" t="s">
+        <v>30</v>
+      </c>
       <c r="S9" s="18"/>
       <c r="T9" s="10"/>
     </row>
@@ -1364,47 +1543,95 @@
       <c r="A10" s="21">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="B10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="33">
+        <v>42443</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="33">
+        <v>42443</v>
+      </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="J10" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="M10" s="14"/>
-      <c r="N10" s="13"/>
+      <c r="N10" s="33">
+        <v>42444</v>
+      </c>
       <c r="O10" s="14"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="31"/>
+      <c r="R10" s="36" t="s">
+        <v>30</v>
+      </c>
       <c r="S10" s="18"/>
       <c r="T10" s="10"/>
     </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="11" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A11" s="21">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="B11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="33">
+        <v>42443</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="33">
+        <v>42443</v>
+      </c>
       <c r="I11" s="12"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="J11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>72</v>
+      </c>
       <c r="M11" s="14"/>
-      <c r="N11" s="13"/>
+      <c r="N11" s="33">
+        <v>42444</v>
+      </c>
       <c r="O11" s="14"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="31"/>
+      <c r="R11" s="36" t="s">
+        <v>30</v>
+      </c>
       <c r="S11" s="18"/>
       <c r="T11" s="10"/>
     </row>
@@ -1412,23 +1639,51 @@
       <c r="A12" s="21">
         <v>12</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
+      <c r="B12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="33">
+        <v>42443</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="33">
+        <v>42443</v>
+      </c>
+      <c r="I12" s="32"/>
+      <c r="J12" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="33">
+        <v>42444</v>
+      </c>
+      <c r="O12" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="31"/>
+      <c r="R12" s="36" t="s">
+        <v>30</v>
+      </c>
       <c r="S12" s="18"/>
       <c r="T12" s="10"/>
     </row>
@@ -1436,23 +1691,51 @@
       <c r="A13" s="21">
         <v>13</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="B13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="33">
+        <v>42443</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="33">
+        <v>42443</v>
+      </c>
       <c r="I13" s="12"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
+      <c r="J13" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" s="33">
+        <v>42444</v>
+      </c>
+      <c r="O13" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="31"/>
+      <c r="R13" s="36" t="s">
+        <v>30</v>
+      </c>
       <c r="S13" s="18"/>
       <c r="T13" s="10"/>
     </row>

--- a/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_极光组.xlsx
+++ b/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_极光组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository\Mogo_Doc_Merge\VersionRecords\Version3.0.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository\Mogo_Doc\VersionRecords\Version3.0.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="73">
   <si>
     <t>No</t>
   </si>
@@ -1037,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1574,11 +1574,15 @@
       <c r="L10" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="M10" s="14"/>
+      <c r="M10" s="34" t="s">
+        <v>61</v>
+      </c>
       <c r="N10" s="33">
         <v>42444</v>
       </c>
-      <c r="O10" s="14"/>
+      <c r="O10" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="36" t="s">
@@ -1622,11 +1626,15 @@
       <c r="L11" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="14"/>
+      <c r="M11" s="34" t="s">
+        <v>61</v>
+      </c>
       <c r="N11" s="33">
         <v>42444</v>
       </c>
-      <c r="O11" s="14"/>
+      <c r="O11" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="36" t="s">
